--- a/spliced/falling/2023-03-25_18-01-46/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-46/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.904903650283813</v>
+        <v>-3.747647881507874</v>
       </c>
       <c r="B2" t="n">
-        <v>4.009042739868163</v>
+        <v>4.277600646018982</v>
       </c>
       <c r="C2" t="n">
-        <v>1.121196746826173</v>
+        <v>0.2108629420399666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.147337973117831</v>
+        <v>-3.872398495674133</v>
       </c>
       <c r="B3" t="n">
-        <v>3.341572999954222</v>
+        <v>4.347799897193909</v>
       </c>
       <c r="C3" t="n">
-        <v>1.590219795703887</v>
+        <v>0.4252039864659314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.578064322471619</v>
+        <v>-3.904903650283813</v>
       </c>
       <c r="B4" t="n">
-        <v>2.440073847770686</v>
+        <v>4.009042739868163</v>
       </c>
       <c r="C4" t="n">
-        <v>1.919119298458106</v>
+        <v>1.121196746826173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.763241469860086</v>
+        <v>-4.147337973117831</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9537072181701609</v>
+        <v>3.341572999954222</v>
       </c>
       <c r="C5" t="n">
-        <v>3.53445836901665</v>
+        <v>1.590219795703887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.981464385986306</v>
+        <v>-4.578064322471619</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2511000633239622</v>
+        <v>2.440073847770686</v>
       </c>
       <c r="C6" t="n">
-        <v>4.341212272644047</v>
+        <v>1.919119298458106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.964182496070859</v>
+        <v>-4.763241469860086</v>
       </c>
       <c r="B7" t="n">
-        <v>2.53690141439438</v>
+        <v>0.9537072181701609</v>
       </c>
       <c r="C7" t="n">
-        <v>5.374873697757723</v>
+        <v>3.53445836901665</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6403729915618919</v>
+        <v>-6.981464385986306</v>
       </c>
       <c r="B8" t="n">
-        <v>8.453629255294809</v>
+        <v>-0.2511000633239622</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.445600330829628</v>
+        <v>4.341212272644047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>25.52450680732733</v>
+        <v>-1.964182496070859</v>
       </c>
       <c r="B9" t="n">
-        <v>10.11635231971741</v>
+        <v>2.53690141439438</v>
       </c>
       <c r="C9" t="n">
-        <v>-29.67163440585143</v>
+        <v>5.374873697757723</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21.21333217620842</v>
+        <v>0.6403729915618919</v>
       </c>
       <c r="B10" t="n">
-        <v>6.795180916786184</v>
+        <v>8.453629255294809</v>
       </c>
       <c r="C10" t="n">
-        <v>-24.62865638732902</v>
+        <v>-1.445600330829628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.512938618659968</v>
+        <v>25.52450680732733</v>
       </c>
       <c r="B11" t="n">
-        <v>4.070763558149341</v>
+        <v>10.11635231971741</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.205098286271084</v>
+        <v>-29.67163440585143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.09360861778259269</v>
+        <v>21.21333217620842</v>
       </c>
       <c r="B12" t="n">
-        <v>5.09270715713501</v>
+        <v>6.795180916786184</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.006848305463790894</v>
+        <v>-24.62865638732902</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4487386941909907</v>
+        <v>1.512938618659968</v>
       </c>
       <c r="B13" t="n">
-        <v>5.822665631771091</v>
+        <v>4.070763558149341</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.949815332889539</v>
+        <v>-2.205098286271084</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.47012042999266</v>
+        <v>0.09360861778259269</v>
       </c>
       <c r="B14" t="n">
-        <v>6.646041870117178</v>
+        <v>5.09270715713501</v>
       </c>
       <c r="C14" t="n">
-        <v>2.636732816696162</v>
+        <v>-0.006848305463790894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.02146565914155785</v>
+        <v>0.4487386941909907</v>
       </c>
       <c r="B15" t="n">
-        <v>4.178134083747851</v>
+        <v>5.822665631771091</v>
       </c>
       <c r="C15" t="n">
-        <v>1.41586604714393</v>
+        <v>-1.949815332889539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8478746414184657</v>
+        <v>3.47012042999266</v>
       </c>
       <c r="B16" t="n">
-        <v>4.644729614257818</v>
+        <v>6.646041870117178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6306794285774192</v>
+        <v>2.636732816696162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5417299270629863</v>
+        <v>-0.02146565914155785</v>
       </c>
       <c r="B17" t="n">
-        <v>5.275527954101563</v>
+        <v>4.178134083747851</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05354586243629561</v>
+        <v>1.41586604714393</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.06840181350708066</v>
+        <v>0.8478746414184657</v>
       </c>
       <c r="B18" t="n">
-        <v>5.362720489501952</v>
+        <v>4.644729614257818</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7121562957763687</v>
+        <v>0.6306794285774192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2478119134902955</v>
+        <v>0.5417299270629863</v>
       </c>
       <c r="B19" t="n">
-        <v>5.057902812957763</v>
+        <v>5.275527954101563</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9678008556365962</v>
+        <v>-0.05354586243629561</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1933193206787098</v>
+        <v>-0.06840181350708066</v>
       </c>
       <c r="B20" t="n">
-        <v>4.857315659523011</v>
+        <v>5.362720489501952</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8107852339744572</v>
+        <v>-0.7121562957763687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.09762549400329572</v>
+        <v>-0.2478119134902955</v>
       </c>
       <c r="B21" t="n">
-        <v>5.140351414680481</v>
+        <v>5.057902812957763</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9125521183013916</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0591449737548828</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.12626314163208</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.9117343425750732</v>
+        <v>-0.9678008556365962</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-46/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-46/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.747647881507874</v>
+        <v>-3.616065740585328</v>
       </c>
       <c r="B2" t="n">
-        <v>4.277600646018982</v>
+        <v>4.469793319702149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2108629420399666</v>
+        <v>0.258730050176382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.872398495674133</v>
+        <v>-3.719920873641968</v>
       </c>
       <c r="B3" t="n">
-        <v>4.347799897193909</v>
+        <v>4.70874035358429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4252039864659314</v>
+        <v>0.04408367723226582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.904903650283813</v>
+        <v>-3.721616864204406</v>
       </c>
       <c r="B4" t="n">
-        <v>4.009042739868163</v>
+        <v>4.585918724536896</v>
       </c>
       <c r="C4" t="n">
-        <v>1.121196746826173</v>
+        <v>0.2726323418319225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.147337973117831</v>
+        <v>-3.805010795593262</v>
       </c>
       <c r="B5" t="n">
-        <v>3.341572999954222</v>
+        <v>4.544945240020752</v>
       </c>
       <c r="C5" t="n">
-        <v>1.590219795703887</v>
+        <v>0.311984956264496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.578064322471619</v>
+        <v>-3.887511849403381</v>
       </c>
       <c r="B6" t="n">
-        <v>2.440073847770686</v>
+        <v>4.449418604373932</v>
       </c>
       <c r="C6" t="n">
-        <v>1.919119298458106</v>
+        <v>0.4409204423427582</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.763241469860086</v>
+        <v>-3.778247833251953</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9537072181701609</v>
+        <v>4.410304188728333</v>
       </c>
       <c r="C7" t="n">
-        <v>3.53445836901665</v>
+        <v>0.5136718302965164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.981464385986306</v>
+        <v>-3.584390580654144</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2511000633239622</v>
+        <v>4.580866992473602</v>
       </c>
       <c r="C8" t="n">
-        <v>4.341212272644047</v>
+        <v>0.3528684750199313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.964182496070859</v>
+        <v>-3.46419882774353</v>
       </c>
       <c r="B9" t="n">
-        <v>2.53690141439438</v>
+        <v>4.518833875656127</v>
       </c>
       <c r="C9" t="n">
-        <v>5.374873697757723</v>
+        <v>0.403674334287644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6403729915618919</v>
+        <v>-3.414171874523162</v>
       </c>
       <c r="B10" t="n">
-        <v>8.453629255294809</v>
+        <v>4.371547281742096</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.445600330829628</v>
+        <v>0.5634630396962166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25.52450680732733</v>
+        <v>-3.423850417137146</v>
       </c>
       <c r="B11" t="n">
-        <v>10.11635231971741</v>
+        <v>4.383899688720703</v>
       </c>
       <c r="C11" t="n">
-        <v>-29.67163440585143</v>
+        <v>0.5505108982324599</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21.21333217620842</v>
+        <v>-3.575843572616578</v>
       </c>
       <c r="B12" t="n">
-        <v>6.795180916786184</v>
+        <v>4.333066165447235</v>
       </c>
       <c r="C12" t="n">
-        <v>-24.62865638732902</v>
+        <v>0.460273951292038</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.512938618659968</v>
+        <v>-3.668661117553711</v>
       </c>
       <c r="B13" t="n">
-        <v>4.070763558149341</v>
+        <v>4.494052410125732</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.205098286271084</v>
+        <v>0.1578152179718018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.09360861778259269</v>
+        <v>-3.737768590450287</v>
       </c>
       <c r="B14" t="n">
-        <v>5.09270715713501</v>
+        <v>4.342036247253418</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.006848305463790894</v>
+        <v>0.1853629685938359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4487386941909907</v>
+        <v>-3.747647881507874</v>
       </c>
       <c r="B15" t="n">
-        <v>5.822665631771091</v>
+        <v>4.277600646018982</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.949815332889539</v>
+        <v>0.2108629420399666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.47012042999266</v>
+        <v>-3.872398495674133</v>
       </c>
       <c r="B16" t="n">
-        <v>6.646041870117178</v>
+        <v>4.347799897193909</v>
       </c>
       <c r="C16" t="n">
-        <v>2.636732816696162</v>
+        <v>0.4252039864659314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.02146565914155785</v>
+        <v>-3.904903650283813</v>
       </c>
       <c r="B17" t="n">
-        <v>4.178134083747851</v>
+        <v>4.009042739868163</v>
       </c>
       <c r="C17" t="n">
-        <v>1.41586604714393</v>
+        <v>1.121196746826173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8478746414184657</v>
+        <v>-4.147337973117831</v>
       </c>
       <c r="B18" t="n">
-        <v>4.644729614257818</v>
+        <v>3.341572999954222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6306794285774192</v>
+        <v>1.590219795703887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5417299270629863</v>
+        <v>-4.578064322471619</v>
       </c>
       <c r="B19" t="n">
-        <v>5.275527954101563</v>
+        <v>2.440073847770686</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.05354586243629561</v>
+        <v>1.919119298458106</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.06840181350708066</v>
+        <v>-4.763241469860086</v>
       </c>
       <c r="B20" t="n">
-        <v>5.362720489501952</v>
+        <v>0.9537072181701609</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7121562957763687</v>
+        <v>3.53445836901665</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.2478119134902955</v>
+        <v>-6.981464385986306</v>
       </c>
       <c r="B21" t="n">
-        <v>5.057902812957763</v>
+        <v>-0.2511000633239622</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9678008556365962</v>
+        <v>4.341212272644047</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.964182496070859</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.53690141439438</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.374873697757723</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6403729915618919</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.453629255294809</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.445600330829628</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25.52450680732733</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10.11635231971741</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-29.67163440585143</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21.21333217620842</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.795180916786184</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-24.62865638732902</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.512938618659968</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.070763558149341</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.205098286271084</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.09360861778259269</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.09270715713501</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.006848305463790894</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4487386941909907</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.822665631771091</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.949815332889539</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.47012042999266</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.646041870117178</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.636732816696162</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.02146565914155785</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4.178134083747851</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.41586604714393</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.8478746414184657</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.644729614257818</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6306794285774192</v>
       </c>
     </row>
   </sheetData>
